--- a/Designs/IO Definitions for SAMD21 Xplained Pro Dev Kit.xlsx
+++ b/Designs/IO Definitions for SAMD21 Xplained Pro Dev Kit.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="51">
   <si>
     <t xml:space="preserve">Header</t>
   </si>
@@ -134,6 +134,45 @@
   </si>
   <si>
     <t xml:space="preserve">PA19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ext3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB23</t>
   </si>
 </sst>
 </file>
@@ -148,6 +187,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -170,6 +210,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -219,11 +260,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -240,16 +281,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="C62" activeCellId="0" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -489,25 +530,19 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A22" s="0"/>
+      <c r="B22" s="0"/>
+      <c r="C22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -515,10 +550,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -526,10 +561,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -537,10 +572,10 @@
         <v>23</v>
       </c>
       <c r="B26" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -548,10 +583,10 @@
         <v>23</v>
       </c>
       <c r="B27" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -559,10 +594,10 @@
         <v>23</v>
       </c>
       <c r="B28" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -570,10 +605,10 @@
         <v>23</v>
       </c>
       <c r="B29" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -581,10 +616,10 @@
         <v>23</v>
       </c>
       <c r="B30" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -592,10 +627,10 @@
         <v>23</v>
       </c>
       <c r="B31" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -603,10 +638,10 @@
         <v>23</v>
       </c>
       <c r="B32" s="1" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -614,10 +649,10 @@
         <v>23</v>
       </c>
       <c r="B33" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -625,10 +660,10 @@
         <v>23</v>
       </c>
       <c r="B34" s="1" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -636,10 +671,10 @@
         <v>23</v>
       </c>
       <c r="B35" s="1" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -647,10 +682,10 @@
         <v>23</v>
       </c>
       <c r="B36" s="1" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -658,10 +693,10 @@
         <v>23</v>
       </c>
       <c r="B37" s="1" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -669,10 +704,10 @@
         <v>23</v>
       </c>
       <c r="B38" s="1" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -680,10 +715,10 @@
         <v>23</v>
       </c>
       <c r="B39" s="1" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -691,10 +726,10 @@
         <v>23</v>
       </c>
       <c r="B40" s="1" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -702,9 +737,240 @@
         <v>23</v>
       </c>
       <c r="B41" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C42" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B47" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B49" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B50" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B51" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B52" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B53" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B54" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B55" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B56" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B57" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B58" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B59" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B60" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B61" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B62" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B63" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>22</v>
       </c>
     </row>

--- a/Designs/IO Definitions for SAMD21 Xplained Pro Dev Kit.xlsx
+++ b/Designs/IO Definitions for SAMD21 Xplained Pro Dev Kit.xlsx
@@ -9,6 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="237">
   <si>
     <t xml:space="preserve">Header</t>
   </si>
@@ -28,7 +29,13 @@
     <t xml:space="preserve">Pin</t>
   </si>
   <si>
-    <t xml:space="preserve">Signal Name</t>
+    <t xml:space="preserve">Micro Signal Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Function Selector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuel Injection Function</t>
   </si>
   <si>
     <t xml:space="preserve">Ext1</t>
@@ -40,12 +47,21 @@
     <t xml:space="preserve">GND</t>
   </si>
   <si>
-    <t xml:space="preserve">PB00 </t>
+    <t xml:space="preserve">PB00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shaft Position Sensor</t>
   </si>
   <si>
     <t xml:space="preserve">PB01</t>
   </si>
   <si>
+    <t xml:space="preserve">B</t>
+  </si>
+  <si>
     <t xml:space="preserve">PB06</t>
   </si>
   <si>
@@ -173,6 +189,549 @@
   </si>
   <si>
     <t xml:space="preserve">PB23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table 7-1.PORT Function Multiplexing for SAM D21A/B/C/D Variant Devices and SAM DA1A/B Variant Devices </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B (2)(3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F </t>
+  </si>
+  <si>
+    <t xml:space="preserve">G </t>
+  </si>
+  <si>
+    <t xml:space="preserve">H </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I/O Pin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMD2xJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supply </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EIC REF </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADC AC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTC DAC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERCOM (2)(3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERCOM -ALT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC (4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">COM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">/TCC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GCLK </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VDDANA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXTINT [0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERCOM1 /</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCC2 /WO [0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAD [0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXTINT [1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCC2 /WO [1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAD [1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXTINT [2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIN [0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y [0]VOUT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCC3 /</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wo [0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXTINT [3]ADC /VREFA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIN [1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y [1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAC /VREFA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WO [1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXTINT [4]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIN [12]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y [10]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXTINT [5]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIN [13]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y [11]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXTINT [8]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIN [14]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y [12]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXTINT [7]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIN [15]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y [13]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIN [2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y [14]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERCOM4 /</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC4 /WO [0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WO [6]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXTINT [9]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIN [3]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y [15]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC4 /WO [1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WO [7]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXTINT [4]ADC /VREFB </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIN [4]AIN [0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y [2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERCOMO /</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCCO /WO [0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WO [2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIN [5]AIN [1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y [3]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCCO /WO [1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WO [3]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXTINT [6]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIN [6]AIN [2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y [4]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCC1 /WO [0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAD [2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WO [4]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIN [7]AIN [3]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y [5]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCC1 /WO [1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12S/SD [0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAD [3]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WO [5]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VDDIO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NMI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIN [16]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X [0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERCOM2 /</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCC1 /</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12S/SD [1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIN [17]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X [1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">125/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCK [0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXTINT [10]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIN [18]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X [2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCCO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GCLK_10 [4]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCK [0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXTINT [11]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIN [19]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X [3]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCCOI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12S/FS [0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GCLK_10 [5]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC5 /WO [0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCCD </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCK [1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC5 /WO [1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCK [1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXTINT [12]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X [12]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12S/FS [1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GCLK_10 [6]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXTINT [13]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X [13]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GCLK_10 [7]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXTINT [14]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X [14]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GCLK_10 [0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXTINT [15]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X [15]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GCLK_10 [1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC /CMP [0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WO [8]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC /CMP [1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC3 /WO [0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC3 /WO [1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCCD /</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X [4]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERCOM3 /</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCCO /WO [6]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GCLK_10 [2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X [5]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCCO /WO [7]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GCLK_10 [3]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X [6]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXTINT [3]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X [7]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERCOM5 /</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC6 /WO [0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC6 /WO [1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X [8]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC7 /WO [0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X [9]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC7 /WO [1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X [10]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X [11]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USB /SOF 1kHz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USB /DM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USB /DP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC7 /W0 [1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SWCLK </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SWDIO (5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIN [8]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y [8]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIN [9]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y [7]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIN [10]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIN [11]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y [9]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Config Table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H</t>
   </si>
 </sst>
 </file>
@@ -182,7 +741,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -206,19 +765,31 @@
     </font>
     <font>
       <b val="true"/>
-      <u val="single"/>
-      <sz val="10"/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -255,7 +826,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -264,7 +835,27 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -285,20 +876,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:AMK63"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C62" activeCellId="0" sqref="C62"/>
+      <selection pane="bottomLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="4.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="20.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="12.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="25.3"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="7" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -308,670 +905,2037 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3"/>
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="3"/>
+      <c r="AK1" s="3"/>
+      <c r="AL1" s="3"/>
+      <c r="AM1" s="3"/>
+      <c r="AN1" s="3"/>
+      <c r="AO1" s="3"/>
+      <c r="AP1" s="3"/>
+      <c r="AQ1" s="3"/>
+      <c r="AR1" s="3"/>
+      <c r="AS1" s="3"/>
+      <c r="AT1" s="3"/>
+      <c r="AU1" s="3"/>
+      <c r="AV1" s="3"/>
+      <c r="AW1" s="3"/>
+      <c r="AX1" s="3"/>
+      <c r="AY1" s="3"/>
+      <c r="AZ1" s="3"/>
+      <c r="BA1" s="3"/>
+      <c r="BB1" s="3"/>
+      <c r="BC1" s="3"/>
+      <c r="BD1" s="3"/>
+      <c r="BE1" s="3"/>
+      <c r="BF1" s="3"/>
+      <c r="BG1" s="3"/>
+      <c r="BH1" s="3"/>
+      <c r="BI1" s="3"/>
+      <c r="BJ1" s="3"/>
+      <c r="BK1" s="3"/>
+      <c r="BL1" s="3"/>
+      <c r="BM1" s="3"/>
+      <c r="BN1" s="3"/>
+      <c r="BO1" s="3"/>
+      <c r="BP1" s="3"/>
+      <c r="BQ1" s="3"/>
+      <c r="BR1" s="3"/>
+      <c r="BS1" s="3"/>
+      <c r="BT1" s="3"/>
+      <c r="BU1" s="3"/>
+      <c r="BV1" s="3"/>
+      <c r="BW1" s="3"/>
+      <c r="BX1" s="3"/>
+      <c r="BY1" s="3"/>
+      <c r="BZ1" s="3"/>
+      <c r="CA1" s="3"/>
+      <c r="CB1" s="3"/>
+      <c r="CC1" s="3"/>
+      <c r="CD1" s="3"/>
+      <c r="CE1" s="3"/>
+      <c r="CF1" s="3"/>
+      <c r="CG1" s="3"/>
+      <c r="CH1" s="3"/>
+      <c r="CI1" s="3"/>
+      <c r="CJ1" s="3"/>
+      <c r="CK1" s="3"/>
+      <c r="CL1" s="3"/>
+      <c r="CM1" s="3"/>
+      <c r="CN1" s="3"/>
+      <c r="CO1" s="3"/>
+      <c r="CP1" s="3"/>
+      <c r="CQ1" s="3"/>
+      <c r="CR1" s="3"/>
+      <c r="CS1" s="3"/>
+      <c r="CT1" s="3"/>
+      <c r="CU1" s="3"/>
+      <c r="CV1" s="3"/>
+      <c r="CW1" s="3"/>
+      <c r="CX1" s="3"/>
+      <c r="CY1" s="3"/>
+      <c r="CZ1" s="3"/>
+      <c r="DA1" s="3"/>
+      <c r="DB1" s="3"/>
+      <c r="DC1" s="3"/>
+      <c r="DD1" s="3"/>
+      <c r="DE1" s="3"/>
+      <c r="DF1" s="3"/>
+      <c r="DG1" s="3"/>
+      <c r="DH1" s="3"/>
+      <c r="DI1" s="3"/>
+      <c r="DJ1" s="3"/>
+      <c r="DK1" s="3"/>
+      <c r="DL1" s="3"/>
+      <c r="DM1" s="3"/>
+      <c r="DN1" s="3"/>
+      <c r="DO1" s="3"/>
+      <c r="DP1" s="3"/>
+      <c r="DQ1" s="3"/>
+      <c r="DR1" s="3"/>
+      <c r="DS1" s="3"/>
+      <c r="DT1" s="3"/>
+      <c r="DU1" s="3"/>
+      <c r="DV1" s="3"/>
+      <c r="DW1" s="3"/>
+      <c r="DX1" s="3"/>
+      <c r="DY1" s="3"/>
+      <c r="DZ1" s="3"/>
+      <c r="EA1" s="3"/>
+      <c r="EB1" s="3"/>
+      <c r="EC1" s="3"/>
+      <c r="ED1" s="3"/>
+      <c r="EE1" s="3"/>
+      <c r="EF1" s="3"/>
+      <c r="EG1" s="3"/>
+      <c r="EH1" s="3"/>
+      <c r="EI1" s="3"/>
+      <c r="EJ1" s="3"/>
+      <c r="EK1" s="3"/>
+      <c r="EL1" s="3"/>
+      <c r="EM1" s="3"/>
+      <c r="EN1" s="3"/>
+      <c r="EO1" s="3"/>
+      <c r="EP1" s="3"/>
+      <c r="EQ1" s="3"/>
+      <c r="ER1" s="3"/>
+      <c r="ES1" s="3"/>
+      <c r="ET1" s="3"/>
+      <c r="EU1" s="3"/>
+      <c r="EV1" s="3"/>
+      <c r="EW1" s="3"/>
+      <c r="EX1" s="3"/>
+      <c r="EY1" s="3"/>
+      <c r="EZ1" s="3"/>
+      <c r="FA1" s="3"/>
+      <c r="FB1" s="3"/>
+      <c r="FC1" s="3"/>
+      <c r="FD1" s="3"/>
+      <c r="FE1" s="3"/>
+      <c r="FF1" s="3"/>
+      <c r="FG1" s="3"/>
+      <c r="FH1" s="3"/>
+      <c r="FI1" s="3"/>
+      <c r="FJ1" s="3"/>
+      <c r="FK1" s="3"/>
+      <c r="FL1" s="3"/>
+      <c r="FM1" s="3"/>
+      <c r="FN1" s="3"/>
+      <c r="FO1" s="3"/>
+      <c r="FP1" s="3"/>
+      <c r="FQ1" s="3"/>
+      <c r="FR1" s="3"/>
+      <c r="FS1" s="3"/>
+      <c r="FT1" s="3"/>
+      <c r="FU1" s="3"/>
+      <c r="FV1" s="3"/>
+      <c r="FW1" s="3"/>
+      <c r="FX1" s="3"/>
+      <c r="FY1" s="3"/>
+      <c r="FZ1" s="3"/>
+      <c r="GA1" s="3"/>
+      <c r="GB1" s="3"/>
+      <c r="GC1" s="3"/>
+      <c r="GD1" s="3"/>
+      <c r="GE1" s="3"/>
+      <c r="GF1" s="3"/>
+      <c r="GG1" s="3"/>
+      <c r="GH1" s="3"/>
+      <c r="GI1" s="3"/>
+      <c r="GJ1" s="3"/>
+      <c r="GK1" s="3"/>
+      <c r="GL1" s="3"/>
+      <c r="GM1" s="3"/>
+      <c r="GN1" s="3"/>
+      <c r="GO1" s="3"/>
+      <c r="GP1" s="3"/>
+      <c r="GQ1" s="3"/>
+      <c r="GR1" s="3"/>
+      <c r="GS1" s="3"/>
+      <c r="GT1" s="3"/>
+      <c r="GU1" s="3"/>
+      <c r="GV1" s="3"/>
+      <c r="GW1" s="3"/>
+      <c r="GX1" s="3"/>
+      <c r="GY1" s="3"/>
+      <c r="GZ1" s="3"/>
+      <c r="HA1" s="3"/>
+      <c r="HB1" s="3"/>
+      <c r="HC1" s="3"/>
+      <c r="HD1" s="3"/>
+      <c r="HE1" s="3"/>
+      <c r="HF1" s="3"/>
+      <c r="HG1" s="3"/>
+      <c r="HH1" s="3"/>
+      <c r="HI1" s="3"/>
+      <c r="HJ1" s="3"/>
+      <c r="HK1" s="3"/>
+      <c r="HL1" s="3"/>
+      <c r="HM1" s="3"/>
+      <c r="HN1" s="3"/>
+      <c r="HO1" s="3"/>
+      <c r="HP1" s="3"/>
+      <c r="HQ1" s="3"/>
+      <c r="HR1" s="3"/>
+      <c r="HS1" s="3"/>
+      <c r="HT1" s="3"/>
+      <c r="HU1" s="3"/>
+      <c r="HV1" s="3"/>
+      <c r="HW1" s="3"/>
+      <c r="HX1" s="3"/>
+      <c r="HY1" s="3"/>
+      <c r="HZ1" s="3"/>
+      <c r="IA1" s="3"/>
+      <c r="IB1" s="3"/>
+      <c r="IC1" s="3"/>
+      <c r="ID1" s="3"/>
+      <c r="IE1" s="3"/>
+      <c r="IF1" s="3"/>
+      <c r="IG1" s="3"/>
+      <c r="IH1" s="3"/>
+      <c r="II1" s="3"/>
+      <c r="IJ1" s="3"/>
+      <c r="IK1" s="3"/>
+      <c r="IL1" s="3"/>
+      <c r="IM1" s="3"/>
+      <c r="IN1" s="3"/>
+      <c r="IO1" s="3"/>
+      <c r="IP1" s="3"/>
+      <c r="IQ1" s="3"/>
+      <c r="IR1" s="3"/>
+      <c r="IS1" s="3"/>
+      <c r="IT1" s="3"/>
+      <c r="IU1" s="3"/>
+      <c r="IV1" s="3"/>
+      <c r="IW1" s="3"/>
+      <c r="IX1" s="3"/>
+      <c r="IY1" s="3"/>
+      <c r="IZ1" s="3"/>
+      <c r="JA1" s="3"/>
+      <c r="JB1" s="3"/>
+      <c r="JC1" s="3"/>
+      <c r="JD1" s="3"/>
+      <c r="JE1" s="3"/>
+      <c r="JF1" s="3"/>
+      <c r="JG1" s="3"/>
+      <c r="JH1" s="3"/>
+      <c r="JI1" s="3"/>
+      <c r="JJ1" s="3"/>
+      <c r="JK1" s="3"/>
+      <c r="JL1" s="3"/>
+      <c r="JM1" s="3"/>
+      <c r="JN1" s="3"/>
+      <c r="JO1" s="3"/>
+      <c r="JP1" s="3"/>
+      <c r="JQ1" s="3"/>
+      <c r="JR1" s="3"/>
+      <c r="JS1" s="3"/>
+      <c r="JT1" s="3"/>
+      <c r="JU1" s="3"/>
+      <c r="JV1" s="3"/>
+      <c r="JW1" s="3"/>
+      <c r="JX1" s="3"/>
+      <c r="JY1" s="3"/>
+      <c r="JZ1" s="3"/>
+      <c r="KA1" s="3"/>
+      <c r="KB1" s="3"/>
+      <c r="KC1" s="3"/>
+      <c r="KD1" s="3"/>
+      <c r="KE1" s="3"/>
+      <c r="KF1" s="3"/>
+      <c r="KG1" s="3"/>
+      <c r="KH1" s="3"/>
+      <c r="KI1" s="3"/>
+      <c r="KJ1" s="3"/>
+      <c r="KK1" s="3"/>
+      <c r="KL1" s="3"/>
+      <c r="KM1" s="3"/>
+      <c r="KN1" s="3"/>
+      <c r="KO1" s="3"/>
+      <c r="KP1" s="3"/>
+      <c r="KQ1" s="3"/>
+      <c r="KR1" s="3"/>
+      <c r="KS1" s="3"/>
+      <c r="KT1" s="3"/>
+      <c r="KU1" s="3"/>
+      <c r="KV1" s="3"/>
+      <c r="KW1" s="3"/>
+      <c r="KX1" s="3"/>
+      <c r="KY1" s="3"/>
+      <c r="KZ1" s="3"/>
+      <c r="LA1" s="3"/>
+      <c r="LB1" s="3"/>
+      <c r="LC1" s="3"/>
+      <c r="LD1" s="3"/>
+      <c r="LE1" s="3"/>
+      <c r="LF1" s="3"/>
+      <c r="LG1" s="3"/>
+      <c r="LH1" s="3"/>
+      <c r="LI1" s="3"/>
+      <c r="LJ1" s="3"/>
+      <c r="LK1" s="3"/>
+      <c r="LL1" s="3"/>
+      <c r="LM1" s="3"/>
+      <c r="LN1" s="3"/>
+      <c r="LO1" s="3"/>
+      <c r="LP1" s="3"/>
+      <c r="LQ1" s="3"/>
+      <c r="LR1" s="3"/>
+      <c r="LS1" s="3"/>
+      <c r="LT1" s="3"/>
+      <c r="LU1" s="3"/>
+      <c r="LV1" s="3"/>
+      <c r="LW1" s="3"/>
+      <c r="LX1" s="3"/>
+      <c r="LY1" s="3"/>
+      <c r="LZ1" s="3"/>
+      <c r="MA1" s="3"/>
+      <c r="MB1" s="3"/>
+      <c r="MC1" s="3"/>
+      <c r="MD1" s="3"/>
+      <c r="ME1" s="3"/>
+      <c r="MF1" s="3"/>
+      <c r="MG1" s="3"/>
+      <c r="MH1" s="3"/>
+      <c r="MI1" s="3"/>
+      <c r="MJ1" s="3"/>
+      <c r="MK1" s="3"/>
+      <c r="ML1" s="3"/>
+      <c r="MM1" s="3"/>
+      <c r="MN1" s="3"/>
+      <c r="MO1" s="3"/>
+      <c r="MP1" s="3"/>
+      <c r="MQ1" s="3"/>
+      <c r="MR1" s="3"/>
+      <c r="MS1" s="3"/>
+      <c r="MT1" s="3"/>
+      <c r="MU1" s="3"/>
+      <c r="MV1" s="3"/>
+      <c r="MW1" s="3"/>
+      <c r="MX1" s="3"/>
+      <c r="MY1" s="3"/>
+      <c r="MZ1" s="3"/>
+      <c r="NA1" s="3"/>
+      <c r="NB1" s="3"/>
+      <c r="NC1" s="3"/>
+      <c r="ND1" s="3"/>
+      <c r="NE1" s="3"/>
+      <c r="NF1" s="3"/>
+      <c r="NG1" s="3"/>
+      <c r="NH1" s="3"/>
+      <c r="NI1" s="3"/>
+      <c r="NJ1" s="3"/>
+      <c r="NK1" s="3"/>
+      <c r="NL1" s="3"/>
+      <c r="NM1" s="3"/>
+      <c r="NN1" s="3"/>
+      <c r="NO1" s="3"/>
+      <c r="NP1" s="3"/>
+      <c r="NQ1" s="3"/>
+      <c r="NR1" s="3"/>
+      <c r="NS1" s="3"/>
+      <c r="NT1" s="3"/>
+      <c r="NU1" s="3"/>
+      <c r="NV1" s="3"/>
+      <c r="NW1" s="3"/>
+      <c r="NX1" s="3"/>
+      <c r="NY1" s="3"/>
+      <c r="NZ1" s="3"/>
+      <c r="OA1" s="3"/>
+      <c r="OB1" s="3"/>
+      <c r="OC1" s="3"/>
+      <c r="OD1" s="3"/>
+      <c r="OE1" s="3"/>
+      <c r="OF1" s="3"/>
+      <c r="OG1" s="3"/>
+      <c r="OH1" s="3"/>
+      <c r="OI1" s="3"/>
+      <c r="OJ1" s="3"/>
+      <c r="OK1" s="3"/>
+      <c r="OL1" s="3"/>
+      <c r="OM1" s="3"/>
+      <c r="ON1" s="3"/>
+      <c r="OO1" s="3"/>
+      <c r="OP1" s="3"/>
+      <c r="OQ1" s="3"/>
+      <c r="OR1" s="3"/>
+      <c r="OS1" s="3"/>
+      <c r="OT1" s="3"/>
+      <c r="OU1" s="3"/>
+      <c r="OV1" s="3"/>
+      <c r="OW1" s="3"/>
+      <c r="OX1" s="3"/>
+      <c r="OY1" s="3"/>
+      <c r="OZ1" s="3"/>
+      <c r="PA1" s="3"/>
+      <c r="PB1" s="3"/>
+      <c r="PC1" s="3"/>
+      <c r="PD1" s="3"/>
+      <c r="PE1" s="3"/>
+      <c r="PF1" s="3"/>
+      <c r="PG1" s="3"/>
+      <c r="PH1" s="3"/>
+      <c r="PI1" s="3"/>
+      <c r="PJ1" s="3"/>
+      <c r="PK1" s="3"/>
+      <c r="PL1" s="3"/>
+      <c r="PM1" s="3"/>
+      <c r="PN1" s="3"/>
+      <c r="PO1" s="3"/>
+      <c r="PP1" s="3"/>
+      <c r="PQ1" s="3"/>
+      <c r="PR1" s="3"/>
+      <c r="PS1" s="3"/>
+      <c r="PT1" s="3"/>
+      <c r="PU1" s="3"/>
+      <c r="PV1" s="3"/>
+      <c r="PW1" s="3"/>
+      <c r="PX1" s="3"/>
+      <c r="PY1" s="3"/>
+      <c r="PZ1" s="3"/>
+      <c r="QA1" s="3"/>
+      <c r="QB1" s="3"/>
+      <c r="QC1" s="3"/>
+      <c r="QD1" s="3"/>
+      <c r="QE1" s="3"/>
+      <c r="QF1" s="3"/>
+      <c r="QG1" s="3"/>
+      <c r="QH1" s="3"/>
+      <c r="QI1" s="3"/>
+      <c r="QJ1" s="3"/>
+      <c r="QK1" s="3"/>
+      <c r="QL1" s="3"/>
+      <c r="QM1" s="3"/>
+      <c r="QN1" s="3"/>
+      <c r="QO1" s="3"/>
+      <c r="QP1" s="3"/>
+      <c r="QQ1" s="3"/>
+      <c r="QR1" s="3"/>
+      <c r="QS1" s="3"/>
+      <c r="QT1" s="3"/>
+      <c r="QU1" s="3"/>
+      <c r="QV1" s="3"/>
+      <c r="QW1" s="3"/>
+      <c r="QX1" s="3"/>
+      <c r="QY1" s="3"/>
+      <c r="QZ1" s="3"/>
+      <c r="RA1" s="3"/>
+      <c r="RB1" s="3"/>
+      <c r="RC1" s="3"/>
+      <c r="RD1" s="3"/>
+      <c r="RE1" s="3"/>
+      <c r="RF1" s="3"/>
+      <c r="RG1" s="3"/>
+      <c r="RH1" s="3"/>
+      <c r="RI1" s="3"/>
+      <c r="RJ1" s="3"/>
+      <c r="RK1" s="3"/>
+      <c r="RL1" s="3"/>
+      <c r="RM1" s="3"/>
+      <c r="RN1" s="3"/>
+      <c r="RO1" s="3"/>
+      <c r="RP1" s="3"/>
+      <c r="RQ1" s="3"/>
+      <c r="RR1" s="3"/>
+      <c r="RS1" s="3"/>
+      <c r="RT1" s="3"/>
+      <c r="RU1" s="3"/>
+      <c r="RV1" s="3"/>
+      <c r="RW1" s="3"/>
+      <c r="RX1" s="3"/>
+      <c r="RY1" s="3"/>
+      <c r="RZ1" s="3"/>
+      <c r="SA1" s="3"/>
+      <c r="SB1" s="3"/>
+      <c r="SC1" s="3"/>
+      <c r="SD1" s="3"/>
+      <c r="SE1" s="3"/>
+      <c r="SF1" s="3"/>
+      <c r="SG1" s="3"/>
+      <c r="SH1" s="3"/>
+      <c r="SI1" s="3"/>
+      <c r="SJ1" s="3"/>
+      <c r="SK1" s="3"/>
+      <c r="SL1" s="3"/>
+      <c r="SM1" s="3"/>
+      <c r="SN1" s="3"/>
+      <c r="SO1" s="3"/>
+      <c r="SP1" s="3"/>
+      <c r="SQ1" s="3"/>
+      <c r="SR1" s="3"/>
+      <c r="SS1" s="3"/>
+      <c r="ST1" s="3"/>
+      <c r="SU1" s="3"/>
+      <c r="SV1" s="3"/>
+      <c r="SW1" s="3"/>
+      <c r="SX1" s="3"/>
+      <c r="SY1" s="3"/>
+      <c r="SZ1" s="3"/>
+      <c r="TA1" s="3"/>
+      <c r="TB1" s="3"/>
+      <c r="TC1" s="3"/>
+      <c r="TD1" s="3"/>
+      <c r="TE1" s="3"/>
+      <c r="TF1" s="3"/>
+      <c r="TG1" s="3"/>
+      <c r="TH1" s="3"/>
+      <c r="TI1" s="3"/>
+      <c r="TJ1" s="3"/>
+      <c r="TK1" s="3"/>
+      <c r="TL1" s="3"/>
+      <c r="TM1" s="3"/>
+      <c r="TN1" s="3"/>
+      <c r="TO1" s="3"/>
+      <c r="TP1" s="3"/>
+      <c r="TQ1" s="3"/>
+      <c r="TR1" s="3"/>
+      <c r="TS1" s="3"/>
+      <c r="TT1" s="3"/>
+      <c r="TU1" s="3"/>
+      <c r="TV1" s="3"/>
+      <c r="TW1" s="3"/>
+      <c r="TX1" s="3"/>
+      <c r="TY1" s="3"/>
+      <c r="TZ1" s="3"/>
+      <c r="UA1" s="3"/>
+      <c r="UB1" s="3"/>
+      <c r="UC1" s="3"/>
+      <c r="UD1" s="3"/>
+      <c r="UE1" s="3"/>
+      <c r="UF1" s="3"/>
+      <c r="UG1" s="3"/>
+      <c r="UH1" s="3"/>
+      <c r="UI1" s="3"/>
+      <c r="UJ1" s="3"/>
+      <c r="UK1" s="3"/>
+      <c r="UL1" s="3"/>
+      <c r="UM1" s="3"/>
+      <c r="UN1" s="3"/>
+      <c r="UO1" s="3"/>
+      <c r="UP1" s="3"/>
+      <c r="UQ1" s="3"/>
+      <c r="UR1" s="3"/>
+      <c r="US1" s="3"/>
+      <c r="UT1" s="3"/>
+      <c r="UU1" s="3"/>
+      <c r="UV1" s="3"/>
+      <c r="UW1" s="3"/>
+      <c r="UX1" s="3"/>
+      <c r="UY1" s="3"/>
+      <c r="UZ1" s="3"/>
+      <c r="VA1" s="3"/>
+      <c r="VB1" s="3"/>
+      <c r="VC1" s="3"/>
+      <c r="VD1" s="3"/>
+      <c r="VE1" s="3"/>
+      <c r="VF1" s="3"/>
+      <c r="VG1" s="3"/>
+      <c r="VH1" s="3"/>
+      <c r="VI1" s="3"/>
+      <c r="VJ1" s="3"/>
+      <c r="VK1" s="3"/>
+      <c r="VL1" s="3"/>
+      <c r="VM1" s="3"/>
+      <c r="VN1" s="3"/>
+      <c r="VO1" s="3"/>
+      <c r="VP1" s="3"/>
+      <c r="VQ1" s="3"/>
+      <c r="VR1" s="3"/>
+      <c r="VS1" s="3"/>
+      <c r="VT1" s="3"/>
+      <c r="VU1" s="3"/>
+      <c r="VV1" s="3"/>
+      <c r="VW1" s="3"/>
+      <c r="VX1" s="3"/>
+      <c r="VY1" s="3"/>
+      <c r="VZ1" s="3"/>
+      <c r="WA1" s="3"/>
+      <c r="WB1" s="3"/>
+      <c r="WC1" s="3"/>
+      <c r="WD1" s="3"/>
+      <c r="WE1" s="3"/>
+      <c r="WF1" s="3"/>
+      <c r="WG1" s="3"/>
+      <c r="WH1" s="3"/>
+      <c r="WI1" s="3"/>
+      <c r="WJ1" s="3"/>
+      <c r="WK1" s="3"/>
+      <c r="WL1" s="3"/>
+      <c r="WM1" s="3"/>
+      <c r="WN1" s="3"/>
+      <c r="WO1" s="3"/>
+      <c r="WP1" s="3"/>
+      <c r="WQ1" s="3"/>
+      <c r="WR1" s="3"/>
+      <c r="WS1" s="3"/>
+      <c r="WT1" s="3"/>
+      <c r="WU1" s="3"/>
+      <c r="WV1" s="3"/>
+      <c r="WW1" s="3"/>
+      <c r="WX1" s="3"/>
+      <c r="WY1" s="3"/>
+      <c r="WZ1" s="3"/>
+      <c r="XA1" s="3"/>
+      <c r="XB1" s="3"/>
+      <c r="XC1" s="3"/>
+      <c r="XD1" s="3"/>
+      <c r="XE1" s="3"/>
+      <c r="XF1" s="3"/>
+      <c r="XG1" s="3"/>
+      <c r="XH1" s="3"/>
+      <c r="XI1" s="3"/>
+      <c r="XJ1" s="3"/>
+      <c r="XK1" s="3"/>
+      <c r="XL1" s="3"/>
+      <c r="XM1" s="3"/>
+      <c r="XN1" s="3"/>
+      <c r="XO1" s="3"/>
+      <c r="XP1" s="3"/>
+      <c r="XQ1" s="3"/>
+      <c r="XR1" s="3"/>
+      <c r="XS1" s="3"/>
+      <c r="XT1" s="3"/>
+      <c r="XU1" s="3"/>
+      <c r="XV1" s="3"/>
+      <c r="XW1" s="3"/>
+      <c r="XX1" s="3"/>
+      <c r="XY1" s="3"/>
+      <c r="XZ1" s="3"/>
+      <c r="YA1" s="3"/>
+      <c r="YB1" s="3"/>
+      <c r="YC1" s="3"/>
+      <c r="YD1" s="3"/>
+      <c r="YE1" s="3"/>
+      <c r="YF1" s="3"/>
+      <c r="YG1" s="3"/>
+      <c r="YH1" s="3"/>
+      <c r="YI1" s="3"/>
+      <c r="YJ1" s="3"/>
+      <c r="YK1" s="3"/>
+      <c r="YL1" s="3"/>
+      <c r="YM1" s="3"/>
+      <c r="YN1" s="3"/>
+      <c r="YO1" s="3"/>
+      <c r="YP1" s="3"/>
+      <c r="YQ1" s="3"/>
+      <c r="YR1" s="3"/>
+      <c r="YS1" s="3"/>
+      <c r="YT1" s="3"/>
+      <c r="YU1" s="3"/>
+      <c r="YV1" s="3"/>
+      <c r="YW1" s="3"/>
+      <c r="YX1" s="3"/>
+      <c r="YY1" s="3"/>
+      <c r="YZ1" s="3"/>
+      <c r="ZA1" s="3"/>
+      <c r="ZB1" s="3"/>
+      <c r="ZC1" s="3"/>
+      <c r="ZD1" s="3"/>
+      <c r="ZE1" s="3"/>
+      <c r="ZF1" s="3"/>
+      <c r="ZG1" s="3"/>
+      <c r="ZH1" s="3"/>
+      <c r="ZI1" s="3"/>
+      <c r="ZJ1" s="3"/>
+      <c r="ZK1" s="3"/>
+      <c r="ZL1" s="3"/>
+      <c r="ZM1" s="3"/>
+      <c r="ZN1" s="3"/>
+      <c r="ZO1" s="3"/>
+      <c r="ZP1" s="3"/>
+      <c r="ZQ1" s="3"/>
+      <c r="ZR1" s="3"/>
+      <c r="ZS1" s="3"/>
+      <c r="ZT1" s="3"/>
+      <c r="ZU1" s="3"/>
+      <c r="ZV1" s="3"/>
+      <c r="ZW1" s="3"/>
+      <c r="ZX1" s="3"/>
+      <c r="ZY1" s="3"/>
+      <c r="ZZ1" s="3"/>
+      <c r="AAA1" s="3"/>
+      <c r="AAB1" s="3"/>
+      <c r="AAC1" s="3"/>
+      <c r="AAD1" s="3"/>
+      <c r="AAE1" s="3"/>
+      <c r="AAF1" s="3"/>
+      <c r="AAG1" s="3"/>
+      <c r="AAH1" s="3"/>
+      <c r="AAI1" s="3"/>
+      <c r="AAJ1" s="3"/>
+      <c r="AAK1" s="3"/>
+      <c r="AAL1" s="3"/>
+      <c r="AAM1" s="3"/>
+      <c r="AAN1" s="3"/>
+      <c r="AAO1" s="3"/>
+      <c r="AAP1" s="3"/>
+      <c r="AAQ1" s="3"/>
+      <c r="AAR1" s="3"/>
+      <c r="AAS1" s="3"/>
+      <c r="AAT1" s="3"/>
+      <c r="AAU1" s="3"/>
+      <c r="AAV1" s="3"/>
+      <c r="AAW1" s="3"/>
+      <c r="AAX1" s="3"/>
+      <c r="AAY1" s="3"/>
+      <c r="AAZ1" s="3"/>
+      <c r="ABA1" s="3"/>
+      <c r="ABB1" s="3"/>
+      <c r="ABC1" s="3"/>
+      <c r="ABD1" s="3"/>
+      <c r="ABE1" s="3"/>
+      <c r="ABF1" s="3"/>
+      <c r="ABG1" s="3"/>
+      <c r="ABH1" s="3"/>
+      <c r="ABI1" s="3"/>
+      <c r="ABJ1" s="3"/>
+      <c r="ABK1" s="3"/>
+      <c r="ABL1" s="3"/>
+      <c r="ABM1" s="3"/>
+      <c r="ABN1" s="3"/>
+      <c r="ABO1" s="3"/>
+      <c r="ABP1" s="3"/>
+      <c r="ABQ1" s="3"/>
+      <c r="ABR1" s="3"/>
+      <c r="ABS1" s="3"/>
+      <c r="ABT1" s="3"/>
+      <c r="ABU1" s="3"/>
+      <c r="ABV1" s="3"/>
+      <c r="ABW1" s="3"/>
+      <c r="ABX1" s="3"/>
+      <c r="ABY1" s="3"/>
+      <c r="ABZ1" s="3"/>
+      <c r="ACA1" s="3"/>
+      <c r="ACB1" s="3"/>
+      <c r="ACC1" s="3"/>
+      <c r="ACD1" s="3"/>
+      <c r="ACE1" s="3"/>
+      <c r="ACF1" s="3"/>
+      <c r="ACG1" s="3"/>
+      <c r="ACH1" s="3"/>
+      <c r="ACI1" s="3"/>
+      <c r="ACJ1" s="3"/>
+      <c r="ACK1" s="3"/>
+      <c r="ACL1" s="3"/>
+      <c r="ACM1" s="3"/>
+      <c r="ACN1" s="3"/>
+      <c r="ACO1" s="3"/>
+      <c r="ACP1" s="3"/>
+      <c r="ACQ1" s="3"/>
+      <c r="ACR1" s="3"/>
+      <c r="ACS1" s="3"/>
+      <c r="ACT1" s="3"/>
+      <c r="ACU1" s="3"/>
+      <c r="ACV1" s="3"/>
+      <c r="ACW1" s="3"/>
+      <c r="ACX1" s="3"/>
+      <c r="ACY1" s="3"/>
+      <c r="ACZ1" s="3"/>
+      <c r="ADA1" s="3"/>
+      <c r="ADB1" s="3"/>
+      <c r="ADC1" s="3"/>
+      <c r="ADD1" s="3"/>
+      <c r="ADE1" s="3"/>
+      <c r="ADF1" s="3"/>
+      <c r="ADG1" s="3"/>
+      <c r="ADH1" s="3"/>
+      <c r="ADI1" s="3"/>
+      <c r="ADJ1" s="3"/>
+      <c r="ADK1" s="3"/>
+      <c r="ADL1" s="3"/>
+      <c r="ADM1" s="3"/>
+      <c r="ADN1" s="3"/>
+      <c r="ADO1" s="3"/>
+      <c r="ADP1" s="3"/>
+      <c r="ADQ1" s="3"/>
+      <c r="ADR1" s="3"/>
+      <c r="ADS1" s="3"/>
+      <c r="ADT1" s="3"/>
+      <c r="ADU1" s="3"/>
+      <c r="ADV1" s="3"/>
+      <c r="ADW1" s="3"/>
+      <c r="ADX1" s="3"/>
+      <c r="ADY1" s="3"/>
+      <c r="ADZ1" s="3"/>
+      <c r="AEA1" s="3"/>
+      <c r="AEB1" s="3"/>
+      <c r="AEC1" s="3"/>
+      <c r="AED1" s="3"/>
+      <c r="AEE1" s="3"/>
+      <c r="AEF1" s="3"/>
+      <c r="AEG1" s="3"/>
+      <c r="AEH1" s="3"/>
+      <c r="AEI1" s="3"/>
+      <c r="AEJ1" s="3"/>
+      <c r="AEK1" s="3"/>
+      <c r="AEL1" s="3"/>
+      <c r="AEM1" s="3"/>
+      <c r="AEN1" s="3"/>
+      <c r="AEO1" s="3"/>
+      <c r="AEP1" s="3"/>
+      <c r="AEQ1" s="3"/>
+      <c r="AER1" s="3"/>
+      <c r="AES1" s="3"/>
+      <c r="AET1" s="3"/>
+      <c r="AEU1" s="3"/>
+      <c r="AEV1" s="3"/>
+      <c r="AEW1" s="3"/>
+      <c r="AEX1" s="3"/>
+      <c r="AEY1" s="3"/>
+      <c r="AEZ1" s="3"/>
+      <c r="AFA1" s="3"/>
+      <c r="AFB1" s="3"/>
+      <c r="AFC1" s="3"/>
+      <c r="AFD1" s="3"/>
+      <c r="AFE1" s="3"/>
+      <c r="AFF1" s="3"/>
+      <c r="AFG1" s="3"/>
+      <c r="AFH1" s="3"/>
+      <c r="AFI1" s="3"/>
+      <c r="AFJ1" s="3"/>
+      <c r="AFK1" s="3"/>
+      <c r="AFL1" s="3"/>
+      <c r="AFM1" s="3"/>
+      <c r="AFN1" s="3"/>
+      <c r="AFO1" s="3"/>
+      <c r="AFP1" s="3"/>
+      <c r="AFQ1" s="3"/>
+      <c r="AFR1" s="3"/>
+      <c r="AFS1" s="3"/>
+      <c r="AFT1" s="3"/>
+      <c r="AFU1" s="3"/>
+      <c r="AFV1" s="3"/>
+      <c r="AFW1" s="3"/>
+      <c r="AFX1" s="3"/>
+      <c r="AFY1" s="3"/>
+      <c r="AFZ1" s="3"/>
+      <c r="AGA1" s="3"/>
+      <c r="AGB1" s="3"/>
+      <c r="AGC1" s="3"/>
+      <c r="AGD1" s="3"/>
+      <c r="AGE1" s="3"/>
+      <c r="AGF1" s="3"/>
+      <c r="AGG1" s="3"/>
+      <c r="AGH1" s="3"/>
+      <c r="AGI1" s="3"/>
+      <c r="AGJ1" s="3"/>
+      <c r="AGK1" s="3"/>
+      <c r="AGL1" s="3"/>
+      <c r="AGM1" s="3"/>
+      <c r="AGN1" s="3"/>
+      <c r="AGO1" s="3"/>
+      <c r="AGP1" s="3"/>
+      <c r="AGQ1" s="3"/>
+      <c r="AGR1" s="3"/>
+      <c r="AGS1" s="3"/>
+      <c r="AGT1" s="3"/>
+      <c r="AGU1" s="3"/>
+      <c r="AGV1" s="3"/>
+      <c r="AGW1" s="3"/>
+      <c r="AGX1" s="3"/>
+      <c r="AGY1" s="3"/>
+      <c r="AGZ1" s="3"/>
+      <c r="AHA1" s="3"/>
+      <c r="AHB1" s="3"/>
+      <c r="AHC1" s="3"/>
+      <c r="AHD1" s="3"/>
+      <c r="AHE1" s="3"/>
+      <c r="AHF1" s="3"/>
+      <c r="AHG1" s="3"/>
+      <c r="AHH1" s="3"/>
+      <c r="AHI1" s="3"/>
+      <c r="AHJ1" s="3"/>
+      <c r="AHK1" s="3"/>
+      <c r="AHL1" s="3"/>
+      <c r="AHM1" s="3"/>
+      <c r="AHN1" s="3"/>
+      <c r="AHO1" s="3"/>
+      <c r="AHP1" s="3"/>
+      <c r="AHQ1" s="3"/>
+      <c r="AHR1" s="3"/>
+      <c r="AHS1" s="3"/>
+      <c r="AHT1" s="3"/>
+      <c r="AHU1" s="3"/>
+      <c r="AHV1" s="3"/>
+      <c r="AHW1" s="3"/>
+      <c r="AHX1" s="3"/>
+      <c r="AHY1" s="3"/>
+      <c r="AHZ1" s="3"/>
+      <c r="AIA1" s="3"/>
+      <c r="AIB1" s="3"/>
+      <c r="AIC1" s="3"/>
+      <c r="AID1" s="3"/>
+      <c r="AIE1" s="3"/>
+      <c r="AIF1" s="3"/>
+      <c r="AIG1" s="3"/>
+      <c r="AIH1" s="3"/>
+      <c r="AII1" s="3"/>
+      <c r="AIJ1" s="3"/>
+      <c r="AIK1" s="3"/>
+      <c r="AIL1" s="3"/>
+      <c r="AIM1" s="3"/>
+      <c r="AIN1" s="3"/>
+      <c r="AIO1" s="3"/>
+      <c r="AIP1" s="3"/>
+      <c r="AIQ1" s="3"/>
+      <c r="AIR1" s="3"/>
+      <c r="AIS1" s="3"/>
+      <c r="AIT1" s="3"/>
+      <c r="AIU1" s="3"/>
+      <c r="AIV1" s="3"/>
+      <c r="AIW1" s="3"/>
+      <c r="AIX1" s="3"/>
+      <c r="AIY1" s="3"/>
+      <c r="AIZ1" s="3"/>
+      <c r="AJA1" s="3"/>
+      <c r="AJB1" s="3"/>
+      <c r="AJC1" s="3"/>
+      <c r="AJD1" s="3"/>
+      <c r="AJE1" s="3"/>
+      <c r="AJF1" s="3"/>
+      <c r="AJG1" s="3"/>
+      <c r="AJH1" s="3"/>
+      <c r="AJI1" s="3"/>
+      <c r="AJJ1" s="3"/>
+      <c r="AJK1" s="3"/>
+      <c r="AJL1" s="3"/>
+      <c r="AJM1" s="3"/>
+      <c r="AJN1" s="3"/>
+      <c r="AJO1" s="3"/>
+      <c r="AJP1" s="3"/>
+      <c r="AJQ1" s="3"/>
+      <c r="AJR1" s="3"/>
+      <c r="AJS1" s="3"/>
+      <c r="AJT1" s="3"/>
+      <c r="AJU1" s="3"/>
+      <c r="AJV1" s="3"/>
+      <c r="AJW1" s="3"/>
+      <c r="AJX1" s="3"/>
+      <c r="AJY1" s="3"/>
+      <c r="AJZ1" s="3"/>
+      <c r="AKA1" s="3"/>
+      <c r="AKB1" s="3"/>
+      <c r="AKC1" s="3"/>
+      <c r="AKD1" s="3"/>
+      <c r="AKE1" s="3"/>
+      <c r="AKF1" s="3"/>
+      <c r="AKG1" s="3"/>
+      <c r="AKH1" s="3"/>
+      <c r="AKI1" s="3"/>
+      <c r="AKJ1" s="3"/>
+      <c r="AKK1" s="3"/>
+      <c r="AKL1" s="3"/>
+      <c r="AKM1" s="3"/>
+      <c r="AKN1" s="3"/>
+      <c r="AKO1" s="3"/>
+      <c r="AKP1" s="3"/>
+      <c r="AKQ1" s="3"/>
+      <c r="AKR1" s="3"/>
+      <c r="AKS1" s="3"/>
+      <c r="AKT1" s="3"/>
+      <c r="AKU1" s="3"/>
+      <c r="AKV1" s="3"/>
+      <c r="AKW1" s="3"/>
+      <c r="AKX1" s="3"/>
+      <c r="AKY1" s="3"/>
+      <c r="AKZ1" s="3"/>
+      <c r="ALA1" s="3"/>
+      <c r="ALB1" s="3"/>
+      <c r="ALC1" s="3"/>
+      <c r="ALD1" s="3"/>
+      <c r="ALE1" s="3"/>
+      <c r="ALF1" s="3"/>
+      <c r="ALG1" s="3"/>
+      <c r="ALH1" s="3"/>
+      <c r="ALI1" s="3"/>
+      <c r="ALJ1" s="3"/>
+      <c r="ALK1" s="3"/>
+      <c r="ALL1" s="3"/>
+      <c r="ALM1" s="3"/>
+      <c r="ALN1" s="3"/>
+      <c r="ALO1" s="3"/>
+      <c r="ALP1" s="3"/>
+      <c r="ALQ1" s="3"/>
+      <c r="ALR1" s="3"/>
+      <c r="ALS1" s="3"/>
+      <c r="ALT1" s="3"/>
+      <c r="ALU1" s="3"/>
+      <c r="ALV1" s="3"/>
+      <c r="ALW1" s="3"/>
+      <c r="ALX1" s="3"/>
+      <c r="ALY1" s="3"/>
+      <c r="ALZ1" s="3"/>
+      <c r="AMA1" s="3"/>
+      <c r="AMB1" s="3"/>
+      <c r="AMC1" s="3"/>
+      <c r="AMD1" s="3"/>
+      <c r="AME1" s="3"/>
+      <c r="AMF1" s="3"/>
+      <c r="AMG1" s="3"/>
+      <c r="AMH1" s="3"/>
+      <c r="AMI1" s="3"/>
+      <c r="AMJ1" s="3"/>
+      <c r="AMK1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="F3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="str">
+        <f aca="false">VLOOKUP(C4,Sheet2!$A$4:$L$104,VLOOKUP(D4,Sheet2!$A$109:$B$116,2,0),0)</f>
+        <v>EXTINT [0]</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1" t="str">
+        <f aca="false">VLOOKUP(C5,Sheet2!$A$4:$L$104,VLOOKUP(D5,Sheet2!$A$109:$B$116,2,0),0)</f>
+        <v>AIN [9]</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1" t="str">
+        <f aca="false">VLOOKUP(C6,Sheet2!$A$4:$L$104,VLOOKUP(D6,Sheet2!$A$109:$B$116,2,0),0)</f>
+        <v>AIN [14]</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="1" t="str">
+        <f aca="false">VLOOKUP(C7,Sheet2!$A$4:$L$104,VLOOKUP(D7,Sheet2!$A$109:$B$116,2,0),0)</f>
+        <v>AIN [15]</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="1" t="str">
+        <f aca="false">VLOOKUP(C8,Sheet2!$A$4:$L$104,VLOOKUP(D8,Sheet2!$A$109:$B$116,2,0),0)</f>
+        <v>AIN [10]</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="str">
+        <f aca="false">VLOOKUP(C9,Sheet2!$A$4:$L$104,VLOOKUP(D9,Sheet2!$A$109:$B$116,2,0),0)</f>
+        <v>AIN [11]</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="E10" s="1" t="str">
+        <f aca="false">VLOOKUP(C10,Sheet2!$A$4:$L$104,VLOOKUP(D10,Sheet2!$A$109:$B$116,2,0),0)</f>
+        <v>AIN [12]</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="1" t="str">
+        <f aca="false">VLOOKUP(C11,Sheet2!$A$4:$L$104,VLOOKUP(D11,Sheet2!$A$109:$B$116,2,0),0)</f>
+        <v>AIN [13]</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="1" t="str">
+        <f aca="false">VLOOKUP(C12,Sheet2!$A$4:$L$104,VLOOKUP(D12,Sheet2!$A$109:$B$116,2,0),0)</f>
+        <v>AIN [16]</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="1" t="str">
+        <f aca="false">VLOOKUP(C13,Sheet2!$A$4:$L$104,VLOOKUP(D13,Sheet2!$A$109:$B$116,2,0),0)</f>
+        <v>AIN [17]</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="1" t="str">
+        <f aca="false">VLOOKUP(C14,Sheet2!$A$4:$L$104,VLOOKUP(D14,Sheet2!$A$109:$B$116,2,0),0)</f>
+        <v>AIN [3]</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="1" t="str">
+        <f aca="false">VLOOKUP(C15,Sheet2!$A$4:$L$104,VLOOKUP(D15,Sheet2!$A$109:$B$116,2,0),0)</f>
+        <v>AIN [2]</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="1" t="str">
+        <f aca="false">VLOOKUP(C16,Sheet2!$A$4:$L$104,VLOOKUP(D16,Sheet2!$A$109:$B$116,2,0),0)</f>
+        <v>AIN [5]AIN [1]</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="1" t="str">
+        <f aca="false">VLOOKUP(C17,Sheet2!$A$4:$L$104,VLOOKUP(D17,Sheet2!$A$109:$B$116,2,0),0)</f>
+        <v>AIN [6]AIN [2]</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="1" t="str">
+        <f aca="false">VLOOKUP(C18,Sheet2!$A$4:$L$104,VLOOKUP(D18,Sheet2!$A$109:$B$116,2,0),0)</f>
+        <v>AIN [4]AIN [0]</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>18</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="1" t="str">
+        <f aca="false">VLOOKUP(C19,Sheet2!$A$4:$L$104,VLOOKUP(D19,Sheet2!$A$109:$B$116,2,0),0)</f>
+        <v>AIN [7]AIN [3]</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>20</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0"/>
-      <c r="B22" s="0"/>
-      <c r="C22" s="0"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="1" t="str">
+        <f aca="false">VLOOKUP(C25,Sheet2!$A$4:$L$104,VLOOKUP(D25,Sheet2!$A$109:$B$116,2,0),0)</f>
+        <v>AIN [18]</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B26" s="1" t="n">
         <v>4</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="1" t="str">
+        <f aca="false">VLOOKUP(C26,Sheet2!$A$4:$L$104,VLOOKUP(D26,Sheet2!$A$109:$B$116,2,0),0)</f>
+        <v>AIN [19]</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>5</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="1" t="n">
+        <f aca="false">VLOOKUP(C27,Sheet2!$A$4:$L$104,VLOOKUP(D27,Sheet2!$A$109:$B$116,2,0),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B28" s="1" t="n">
         <v>6</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="1" t="n">
+        <f aca="false">VLOOKUP(C28,Sheet2!$A$4:$L$104,VLOOKUP(D28,Sheet2!$A$109:$B$116,2,0),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B29" s="1" t="n">
         <v>7</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="1" t="n">
+        <f aca="false">VLOOKUP(C29,Sheet2!$A$4:$L$104,VLOOKUP(D29,Sheet2!$A$109:$B$116,2,0),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1" t="n">
         <v>8</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="1" t="n">
+        <f aca="false">VLOOKUP(C30,Sheet2!$A$4:$L$104,VLOOKUP(D30,Sheet2!$A$109:$B$116,2,0),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B31" s="1" t="n">
         <v>9</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="1" t="n">
+        <f aca="false">VLOOKUP(C31,Sheet2!$A$4:$L$104,VLOOKUP(D31,Sheet2!$A$109:$B$116,2,0),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B32" s="1" t="n">
         <v>10</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="1" t="n">
+        <f aca="false">VLOOKUP(C32,Sheet2!$A$4:$L$104,VLOOKUP(D32,Sheet2!$A$109:$B$116,2,0),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B33" s="1" t="n">
         <v>11</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="1" t="str">
+        <f aca="false">VLOOKUP(C33,Sheet2!$A$4:$L$104,VLOOKUP(D33,Sheet2!$A$109:$B$116,2,0),0)</f>
+        <v>AIN [16]</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B34" s="1" t="n">
         <v>12</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="1" t="str">
+        <f aca="false">VLOOKUP(C34,Sheet2!$A$4:$L$104,VLOOKUP(D34,Sheet2!$A$109:$B$116,2,0),0)</f>
+        <v>AIN [17]</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B35" s="1" t="n">
         <v>13</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="1" t="n">
+        <f aca="false">VLOOKUP(C35,Sheet2!$A$4:$L$104,VLOOKUP(D35,Sheet2!$A$109:$B$116,2,0),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B36" s="1" t="n">
         <v>14</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="1" t="n">
+        <f aca="false">VLOOKUP(C36,Sheet2!$A$4:$L$104,VLOOKUP(D36,Sheet2!$A$109:$B$116,2,0),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B37" s="1" t="n">
         <v>15</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="1" t="n">
+        <f aca="false">VLOOKUP(C37,Sheet2!$A$4:$L$104,VLOOKUP(D37,Sheet2!$A$109:$B$116,2,0),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B38" s="1" t="n">
         <v>16</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="1" t="n">
+        <f aca="false">VLOOKUP(C38,Sheet2!$A$4:$L$104,VLOOKUP(D38,Sheet2!$A$109:$B$116,2,0),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B39" s="1" t="n">
         <v>17</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="1" t="n">
+        <f aca="false">VLOOKUP(C39,Sheet2!$A$4:$L$104,VLOOKUP(D39,Sheet2!$A$109:$B$116,2,0),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B40" s="1" t="n">
         <v>18</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="1" t="n">
+        <f aca="false">VLOOKUP(C40,Sheet2!$A$4:$L$104,VLOOKUP(D40,Sheet2!$A$109:$B$116,2,0),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B41" s="1" t="n">
         <v>19</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B42" s="1" t="n">
         <v>20</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B44" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B46" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="1" t="str">
+        <f aca="false">VLOOKUP(C46,Sheet2!$A$4:$L$104,VLOOKUP(D46,Sheet2!$A$109:$B$116,2,0),0)</f>
+        <v>AIN [0]</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B47" s="1" t="n">
         <v>4</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="1" t="str">
+        <f aca="false">VLOOKUP(C47,Sheet2!$A$4:$L$104,VLOOKUP(D47,Sheet2!$A$109:$B$116,2,0),0)</f>
+        <v>AIN [1]</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B48" s="1" t="n">
         <v>5</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" s="1" t="n">
+        <f aca="false">VLOOKUP(C48,Sheet2!$A$4:$L$104,VLOOKUP(D48,Sheet2!$A$109:$B$116,2,0),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B49" s="1" t="n">
         <v>6</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="1" t="n">
+        <f aca="false">VLOOKUP(C49,Sheet2!$A$4:$L$104,VLOOKUP(D49,Sheet2!$A$109:$B$116,2,0),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B50" s="1" t="n">
         <v>7</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" s="1" t="n">
+        <f aca="false">VLOOKUP(C50,Sheet2!$A$4:$L$104,VLOOKUP(D50,Sheet2!$A$109:$B$116,2,0),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B51" s="1" t="n">
         <v>8</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" s="1" t="n">
+        <f aca="false">VLOOKUP(C51,Sheet2!$A$4:$L$104,VLOOKUP(D51,Sheet2!$A$109:$B$116,2,0),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B52" s="1" t="n">
         <v>9</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" s="1" t="n">
+        <f aca="false">VLOOKUP(C52,Sheet2!$A$4:$L$104,VLOOKUP(D52,Sheet2!$A$109:$B$116,2,0),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B53" s="1" t="n">
         <v>10</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" s="1" t="n">
+        <f aca="false">VLOOKUP(C53,Sheet2!$A$4:$L$104,VLOOKUP(D53,Sheet2!$A$109:$B$116,2,0),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B54" s="1" t="n">
         <v>11</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" s="1" t="str">
+        <f aca="false">VLOOKUP(C54,Sheet2!$A$4:$L$104,VLOOKUP(D54,Sheet2!$A$109:$B$116,2,0),0)</f>
+        <v>AIN [16]</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B55" s="1" t="n">
         <v>12</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55" s="1" t="str">
+        <f aca="false">VLOOKUP(C55,Sheet2!$A$4:$L$104,VLOOKUP(D55,Sheet2!$A$109:$B$116,2,0),0)</f>
+        <v>AIN [17]</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B56" s="1" t="n">
         <v>13</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" s="1" t="n">
+        <f aca="false">VLOOKUP(C56,Sheet2!$A$4:$L$104,VLOOKUP(D56,Sheet2!$A$109:$B$116,2,0),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B57" s="1" t="n">
         <v>14</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" s="1" t="n">
+        <f aca="false">VLOOKUP(C57,Sheet2!$A$4:$L$104,VLOOKUP(D57,Sheet2!$A$109:$B$116,2,0),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B58" s="1" t="n">
         <v>15</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" s="1" t="n">
+        <f aca="false">VLOOKUP(C58,Sheet2!$A$4:$L$104,VLOOKUP(D58,Sheet2!$A$109:$B$116,2,0),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B59" s="1" t="n">
         <v>16</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" s="1" t="n">
+        <f aca="false">VLOOKUP(C59,Sheet2!$A$4:$L$104,VLOOKUP(D59,Sheet2!$A$109:$B$116,2,0),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B60" s="1" t="n">
         <v>17</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60" s="1" t="n">
+        <f aca="false">VLOOKUP(C60,Sheet2!$A$4:$L$104,VLOOKUP(D60,Sheet2!$A$109:$B$116,2,0),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B61" s="1" t="n">
         <v>18</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" s="1" t="n">
+        <f aca="false">VLOOKUP(C61,Sheet2!$A$4:$L$104,VLOOKUP(D61,Sheet2!$A$109:$B$116,2,0),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B62" s="1" t="n">
         <v>19</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B63" s="1" t="n">
         <v>20</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -983,4 +2947,2736 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:L116"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A76" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G97" activeCellId="0" sqref="G97"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="13.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="14.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="11.85"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="7" t="n">
+        <v>12</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="7" t="n">
+        <v>13</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="7" t="n">
+        <v>14</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="7" t="n">
+        <v>16</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="L27" s="1"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="7" t="n">
+        <v>17</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="L29" s="1"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="7" t="n">
+        <v>18</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="L31" s="1"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="L32" s="1"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="7" t="n">
+        <v>19</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="L34" s="1"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" s="7" t="n">
+        <v>20</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="7" t="n">
+        <v>23</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="L38" s="1"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="7" t="n">
+        <v>24</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="L40" s="1"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41" s="7" t="n">
+        <v>25</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" s="7" t="n">
+        <v>26</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45" s="7" t="n">
+        <v>27</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B47" s="7" t="n">
+        <v>28</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" s="7" t="n">
+        <v>29</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B53" s="7" t="n">
+        <v>31</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B55" s="7" t="n">
+        <v>32</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="7"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B57" s="7" t="n">
+        <v>35</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="7"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B59" s="7" t="n">
+        <v>36</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="7"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B61" s="7" t="n">
+        <v>37</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="7"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B63" s="7" t="n">
+        <v>38</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="7"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B65" s="7" t="n">
+        <v>39</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="7"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B67" s="7" t="n">
+        <v>40</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="7"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="L68" s="1"/>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B69" s="7" t="n">
+        <v>41</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="7"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="L70" s="1"/>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B71" s="7" t="n">
+        <v>42</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="7"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="B73" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="7"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="B75" s="7" t="n">
+        <v>44</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="7"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="B77" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="L77" s="1"/>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="7"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B79" s="7" t="n">
+        <v>48</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L79" s="1"/>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="7"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B81" s="7" t="n">
+        <v>49</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="7"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B83" s="7" t="n">
+        <v>50</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="7"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B85" s="7" t="n">
+        <v>51</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="7"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B87" s="7" t="n">
+        <v>53</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="7"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="B89" s="7" t="n">
+        <v>57</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="L89" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="7"/>
+      <c r="B90" s="7"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="B91" s="7" t="n">
+        <v>58</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="L91" s="1"/>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="7"/>
+      <c r="B92" s="7"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B93" s="7" t="n">
+        <v>59</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="7"/>
+      <c r="B94" s="7"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="B95" s="7" t="n">
+        <v>60</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="7"/>
+      <c r="B96" s="7"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B97" s="7" t="n">
+        <v>61</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="7"/>
+      <c r="B98" s="7"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B99" s="7" t="n">
+        <v>62</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="7"/>
+      <c r="B100" s="7"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B101" s="7" t="n">
+        <v>63</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="7"/>
+      <c r="B102" s="7"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B103" s="7" t="n">
+        <v>64</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="7"/>
+      <c r="B104" s="7"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I104" s="1"/>
+      <c r="J104" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B109" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B110" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="B111" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="B112" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="B113" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="B114" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="B115" s="0" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="B116" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>